--- a/assets/List_AllInputs_MatEdits.xlsx
+++ b/assets/List_AllInputs_MatEdits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schra02155\PycharmProjects\hanson-bas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11628EE2-CBE9-4C97-B3AB-98B5B446352C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F7171-2AA3-4E73-BF01-20A3A0163F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2160" yWindow="3960" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="P287" sqref="P287"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/assets/List_AllInputs_MatEdits.xlsx
+++ b/assets/List_AllInputs_MatEdits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coals01826\Desktop\Coding\hanson-bas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F495F2-39FC-48CC-80A5-1B647505D71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D9230-80FE-4F3B-ACCF-6768330FA4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1876,10 +1876,10 @@
   <dimension ref="A1:S524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E400" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G443" sqref="G443"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1896,7 @@
     <col min="10" max="10" width="6.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="25.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.42578125" customWidth="1"/>
     <col min="16" max="16" width="32.42578125" customWidth="1"/>
